--- a/data/北京统计数据.xlsx
+++ b/data/北京统计数据.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="60" windowWidth="18135" windowHeight="12150" activeTab="1"/>
@@ -10,7 +10,7 @@
     <sheet name="景点名称" sheetId="1" r:id="rId1"/>
     <sheet name="所有连接" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -2383,24 +2383,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2442,7 +2437,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2728,7 +2723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E390"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A369" workbookViewId="0">
       <selection sqref="A1:A40"/>
     </sheetView>
   </sheetViews>
@@ -9695,7 +9690,7 @@
         <v>1</v>
       </c>
       <c r="E387">
-        <f t="shared" ref="E387:E390" si="6">D386-D387</f>
+        <f>D386-D387</f>
         <v>0</v>
       </c>
     </row>
@@ -9713,7 +9708,7 @@
         <v>1</v>
       </c>
       <c r="E388">
-        <f t="shared" si="6"/>
+        <f>D387-D388</f>
         <v>0</v>
       </c>
     </row>
@@ -9731,7 +9726,7 @@
         <v>1</v>
       </c>
       <c r="E389">
-        <f t="shared" si="6"/>
+        <f>D388-D389</f>
         <v>0</v>
       </c>
     </row>
@@ -9749,7 +9744,7 @@
         <v>1</v>
       </c>
       <c r="E390">
-        <f t="shared" si="6"/>
+        <f>D389-D390</f>
         <v>0</v>
       </c>
     </row>
@@ -9764,8 +9759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
